--- a/raw_data/eurostat/demographics_age.xlsx
+++ b/raw_data/eurostat/demographics_age.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/AutoEmp/raw_data/eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66DAAF-3CB0-8E4E-9E6B-791DAF783572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5644D1D-D584-584F-BC38-C04C05F70D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="15" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10220" yWindow="-28300" windowWidth="51200" windowHeight="28300" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16641" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16641" uniqueCount="339">
   <si>
     <t>Population on 1 January by broad age group, sex and NUTS 3 region [demo_r_pjanaggr3__custom_12386898]</t>
   </si>
@@ -1067,6 +1067,12 @@
   <si>
     <t>region</t>
   </si>
+  <si>
+    <t>Côtes-d'Armor</t>
+  </si>
+  <si>
+    <t>region_code</t>
+  </si>
 </sst>
 </file>
 
@@ -1112,7 +1118,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,6 +1150,12 @@
         <fgColor rgb="FFF6F6F6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1172,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1217,6 +1229,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1227,11 +1245,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,22 +1664,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2408,42 +2426,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4630,42 +4648,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6852,42 +6870,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9001,11 +9019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114:D115"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9072,10 +9090,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -9086,10 +9104,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -9101,7 +9119,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>336</v>
@@ -9120,10 +9138,10 @@
       <c r="B13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>60545022</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>39401830</v>
       </c>
     </row>
@@ -9134,10 +9152,10 @@
       <c r="B14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>2129731</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>1514252</v>
       </c>
     </row>
@@ -9148,10 +9166,10 @@
       <c r="B15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>1202569</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>808415</v>
       </c>
     </row>
@@ -9162,10 +9180,10 @@
       <c r="B16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>1358816</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>915332</v>
       </c>
     </row>
@@ -9176,10 +9194,10 @@
       <c r="B17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>1142331</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>774920</v>
       </c>
     </row>
@@ -9190,10 +9208,10 @@
       <c r="B18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>1442087</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>973629</v>
       </c>
     </row>
@@ -9204,10 +9222,10 @@
       <c r="B19" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>1396942</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>940835</v>
       </c>
     </row>
@@ -9218,10 +9236,10 @@
       <c r="B20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <v>1236443</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>833465</v>
       </c>
     </row>
@@ -9232,10 +9250,10 @@
       <c r="B21" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>1111072</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>748546</v>
       </c>
     </row>
@@ -9246,10 +9264,10 @@
       <c r="B22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <v>314584</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>197754</v>
       </c>
     </row>
@@ -9260,10 +9278,10 @@
       <c r="B23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>409342</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="16">
         <v>261745</v>
       </c>
     </row>
@@ -9274,10 +9292,10 @@
       <c r="B24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>231441</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>142061</v>
       </c>
     </row>
@@ -9288,10 +9306,10 @@
       <c r="B25" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="16">
         <v>557170</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="16">
         <v>362094</v>
       </c>
     </row>
@@ -9302,10 +9320,10 @@
       <c r="B26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="17">
         <v>316354</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="17">
         <v>196054</v>
       </c>
     </row>
@@ -9316,10 +9334,10 @@
       <c r="B27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <v>621230</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="16">
         <v>402190</v>
       </c>
     </row>
@@ -9330,10 +9348,10 @@
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <v>508015</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>336023</v>
       </c>
     </row>
@@ -9344,10 +9362,10 @@
       <c r="B29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <v>225054</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="16">
         <v>137680</v>
       </c>
     </row>
@@ -9358,10 +9376,10 @@
       <c r="B30" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>545723</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>340949</v>
       </c>
     </row>
@@ -9372,10 +9390,10 @@
       <c r="B31" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <v>334026</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="16">
         <v>206772</v>
       </c>
     </row>
@@ -9386,10 +9404,10 @@
       <c r="B32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>501423</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="17">
         <v>332952</v>
       </c>
     </row>
@@ -9400,10 +9418,10 @@
       <c r="B33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>251811</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="16">
         <v>157973</v>
       </c>
     </row>
@@ -9414,10 +9432,10 @@
       <c r="B34" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>230380</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="17">
         <v>147239</v>
       </c>
     </row>
@@ -9428,10 +9446,10 @@
       <c r="B35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="16">
         <v>137898</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="16">
         <v>91097</v>
       </c>
     </row>
@@ -9442,10 +9460,10 @@
       <c r="B36" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="17">
         <v>651193</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="17">
         <v>425393</v>
       </c>
     </row>
@@ -9456,10 +9474,10 @@
       <c r="B37" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="16">
         <v>483178</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="16">
         <v>298755</v>
       </c>
     </row>
@@ -9470,10 +9488,10 @@
       <c r="B38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="17">
         <v>292557</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="17">
         <v>182074</v>
       </c>
     </row>
@@ -9484,10 +9502,10 @@
       <c r="B39" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>544635</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="16">
         <v>352811</v>
       </c>
     </row>
@@ -9498,10 +9516,10 @@
       <c r="B40" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="17">
         <v>1239940</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="17">
         <v>808626</v>
       </c>
     </row>
@@ -9512,10 +9530,10 @@
       <c r="B41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="16">
         <v>2554638</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="16">
         <v>1665797</v>
       </c>
     </row>
@@ -9526,10 +9544,10 @@
       <c r="B42" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="17">
         <v>1443226</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="17">
         <v>922826</v>
       </c>
     </row>
@@ -9540,10 +9558,10 @@
       <c r="B43" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="16">
         <v>536260</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="16">
         <v>340651</v>
       </c>
     </row>
@@ -9554,10 +9572,10 @@
       <c r="B44" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="17">
         <v>769848</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="17">
         <v>509056</v>
       </c>
     </row>
@@ -9568,10 +9586,10 @@
       <c r="B45" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="16">
         <v>556830</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="16">
         <v>362932</v>
       </c>
     </row>
@@ -9582,10 +9600,10 @@
       <c r="B46" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="17">
         <v>1032498</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="17">
         <v>695408</v>
       </c>
     </row>
@@ -9596,10 +9614,10 @@
       <c r="B47" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="16">
         <v>711457</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="16">
         <v>469621</v>
       </c>
     </row>
@@ -9610,10 +9628,10 @@
       <c r="B48" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="17">
         <v>289609</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="17">
         <v>184692</v>
       </c>
     </row>
@@ -9624,10 +9642,10 @@
       <c r="B49" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="16">
         <v>293185</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="16">
         <v>188236</v>
       </c>
     </row>
@@ -9638,10 +9656,10 @@
       <c r="B50" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="17">
         <v>565189</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="17">
         <v>377360</v>
       </c>
     </row>
@@ -9652,10 +9670,10 @@
       <c r="B51" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="16">
         <v>194024</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="16">
         <v>122541</v>
       </c>
     </row>
@@ -9666,10 +9684,10 @@
       <c r="B52" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="17">
         <v>715684</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="17">
         <v>473724</v>
       </c>
     </row>
@@ -9680,10 +9698,10 @@
       <c r="B53" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="16">
         <v>192682</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="16">
         <v>121365</v>
       </c>
     </row>
@@ -9694,10 +9712,10 @@
       <c r="B54" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="17">
         <v>1025516</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="17">
         <v>681613</v>
       </c>
     </row>
@@ -9708,10 +9726,10 @@
       <c r="B55" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="16">
         <v>381027</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="16">
         <v>241698</v>
       </c>
     </row>
@@ -9722,10 +9740,10 @@
       <c r="B56" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="17">
         <v>1146058</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="17">
         <v>752842</v>
       </c>
     </row>
@@ -9736,10 +9754,10 @@
       <c r="B57" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="16">
         <v>736867</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="16">
         <v>475558</v>
       </c>
     </row>
@@ -9750,10 +9768,10 @@
       <c r="B58" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="17">
         <v>286970</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="17">
         <v>179491</v>
       </c>
     </row>
@@ -9764,10 +9782,10 @@
       <c r="B59" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="16">
         <v>532765</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="16">
         <v>337618</v>
       </c>
     </row>
@@ -9778,10 +9796,10 @@
       <c r="B60" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="17">
         <v>546334</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="17">
         <v>343886</v>
       </c>
     </row>
@@ -9792,10 +9810,10 @@
       <c r="B61" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="16">
         <v>545656</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="16">
         <v>335327</v>
       </c>
     </row>
@@ -9806,10 +9824,10 @@
       <c r="B62" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="17">
         <v>855924</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="17">
         <v>541589</v>
       </c>
     </row>
@@ -9820,10 +9838,10 @@
       <c r="B63" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="16">
         <v>876201</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="16">
         <v>577930</v>
       </c>
     </row>
@@ -9834,10 +9852,10 @@
       <c r="B64" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="17">
         <v>649831</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="17">
         <v>410973</v>
       </c>
     </row>
@@ -9848,10 +9866,10 @@
       <c r="B65" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="16">
         <v>390272</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="16">
         <v>237270</v>
       </c>
     </row>
@@ -9862,10 +9880,10 @@
       <c r="B66" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="17">
         <v>1299777</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="17">
         <v>860173</v>
       </c>
     </row>
@@ -9876,10 +9894,10 @@
       <c r="B67" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>331510</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="16">
         <v>207023</v>
       </c>
     </row>
@@ -9890,10 +9908,10 @@
       <c r="B68" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="17">
         <v>307415</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="17">
         <v>189067</v>
       </c>
     </row>
@@ -9904,10 +9922,10 @@
       <c r="B69" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="16">
         <v>604249</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="16">
         <v>383845</v>
       </c>
     </row>
@@ -9918,10 +9936,10 @@
       <c r="B70" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="17">
         <v>233631</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="17">
         <v>143524</v>
       </c>
     </row>
@@ -9932,10 +9950,10 @@
       <c r="B71" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="16">
         <v>124303</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="16">
         <v>72929</v>
       </c>
     </row>
@@ -9946,10 +9964,10 @@
       <c r="B72" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="17">
         <v>355315</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="17">
         <v>228048</v>
       </c>
     </row>
@@ -9960,10 +9978,10 @@
       <c r="B73" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="16">
         <v>340761</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="16">
         <v>214284</v>
       </c>
     </row>
@@ -9974,10 +9992,10 @@
       <c r="B74" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="17">
         <v>561742</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="17">
         <v>348596</v>
       </c>
     </row>
@@ -9988,10 +10006,10 @@
       <c r="B75" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="16">
         <v>346432</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="16">
         <v>217100</v>
       </c>
     </row>
@@ -10002,10 +10020,10 @@
       <c r="B76" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="17">
         <v>401443</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="17">
         <v>261560</v>
       </c>
     </row>
@@ -10016,10 +10034,10 @@
       <c r="B77" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="16">
         <v>313341</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="16">
         <v>191202</v>
       </c>
     </row>
@@ -10030,10 +10048,10 @@
       <c r="B78" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="17">
         <v>630051</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="17">
         <v>400182</v>
       </c>
     </row>
@@ -10044,10 +10062,10 @@
       <c r="B79" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="16">
         <v>907747</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="16">
         <v>587972</v>
       </c>
     </row>
@@ -10058,10 +10076,10 @@
       <c r="B80" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="17">
         <v>73851</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="17">
         <v>46322</v>
       </c>
     </row>
@@ -10072,10 +10090,10 @@
       <c r="B81" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="16">
         <v>397082</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="16">
         <v>241958</v>
       </c>
     </row>
@@ -10086,10 +10104,10 @@
       <c r="B82" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="17">
         <v>138199</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="17">
         <v>83730</v>
       </c>
     </row>
@@ -10100,10 +10118,10 @@
       <c r="B83" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="16">
         <v>265065</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="16">
         <v>161246</v>
       </c>
     </row>
@@ -10114,10 +10132,10 @@
       <c r="B84" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="17">
         <v>1062514</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="17">
         <v>722421</v>
       </c>
     </row>
@@ -10128,10 +10146,10 @@
       <c r="B85" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="16">
         <v>173522</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="16">
         <v>105325</v>
       </c>
     </row>
@@ -10142,10 +10160,10 @@
       <c r="B86" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="17">
         <v>161375</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="17">
         <v>97528</v>
       </c>
     </row>
@@ -10156,10 +10174,10 @@
       <c r="B87" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="16">
         <v>223299</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="16">
         <v>139940</v>
       </c>
     </row>
@@ -10170,10 +10188,10 @@
       <c r="B88" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="17">
         <v>345859</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="17">
         <v>212737</v>
       </c>
     </row>
@@ -10184,10 +10202,10 @@
       <c r="B89" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="16">
         <v>208421</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="16">
         <v>129218</v>
       </c>
     </row>
@@ -10198,10 +10216,10 @@
       <c r="B90" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="17">
         <v>344710</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="17">
         <v>213242</v>
       </c>
     </row>
@@ -10212,10 +10230,10 @@
       <c r="B91" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="16">
         <v>150640</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="16">
         <v>94315</v>
       </c>
     </row>
@@ -10226,10 +10244,10 @@
       <c r="B92" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="17">
         <v>210410</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D92" s="17">
         <v>131346</v>
       </c>
     </row>
@@ -10240,10 +10258,10 @@
       <c r="B93" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="16">
         <v>606467</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="16">
         <v>403917</v>
       </c>
     </row>
@@ -10254,10 +10272,10 @@
       <c r="B94" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="17">
         <v>521103</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="17">
         <v>339331</v>
       </c>
     </row>
@@ -10268,10 +10286,10 @@
       <c r="B95" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="16">
         <v>288386</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="16">
         <v>180062</v>
       </c>
     </row>
@@ -10282,10 +10300,10 @@
       <c r="B96" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="17">
         <v>441480</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D96" s="17">
         <v>280297</v>
       </c>
     </row>
@@ -10296,10 +10314,10 @@
       <c r="B97" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="16">
         <v>1102331</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="16">
         <v>731882</v>
       </c>
     </row>
@@ -10310,10 +10328,10 @@
       <c r="B98" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="17">
         <v>730614</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="17">
         <v>465520</v>
       </c>
     </row>
@@ -10324,10 +10342,10 @@
       <c r="B99" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="16">
         <v>1588910</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="16">
         <v>1056429</v>
       </c>
     </row>
@@ -10338,10 +10356,10 @@
       <c r="B100" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="17">
         <v>376516</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="17">
         <v>246685</v>
       </c>
     </row>
@@ -10352,10 +10370,10 @@
       <c r="B101" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="16">
         <v>639184</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="16">
         <v>426063</v>
       </c>
     </row>
@@ -10366,10 +10384,10 @@
       <c r="B102" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="17">
         <v>141454</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D102" s="17">
         <v>87774</v>
       </c>
     </row>
@@ -10380,10 +10398,10 @@
       <c r="B103" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C103" s="16">
         <v>122542</v>
       </c>
-      <c r="D103" s="20">
+      <c r="D103" s="16">
         <v>77459</v>
       </c>
     </row>
@@ -10394,10 +10412,10 @@
       <c r="B104" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="17">
         <v>1017956</v>
       </c>
-      <c r="D104" s="21">
+      <c r="D104" s="17">
         <v>631339</v>
       </c>
     </row>
@@ -10408,10 +10426,10 @@
       <c r="B105" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C105" s="16">
         <v>1846878</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="16">
         <v>1207812</v>
       </c>
     </row>
@@ -10422,10 +10440,10 @@
       <c r="B106" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="17">
         <v>908895</v>
       </c>
-      <c r="D106" s="21">
+      <c r="D106" s="17">
         <v>563309</v>
       </c>
     </row>
@@ -10436,10 +10454,10 @@
       <c r="B107" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C107" s="20">
+      <c r="C107" s="16">
         <v>503783</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D107" s="16">
         <v>321040</v>
       </c>
     </row>
@@ -10450,10 +10468,10 @@
       <c r="B108" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="17">
         <v>120753</v>
       </c>
-      <c r="D108" s="21">
+      <c r="D108" s="17">
         <v>76863</v>
       </c>
     </row>
@@ -10464,10 +10482,10 @@
       <c r="B109" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C109" s="16">
         <v>143786</v>
       </c>
-      <c r="D109" s="20">
+      <c r="D109" s="16">
         <v>93593</v>
       </c>
     </row>
@@ -10478,8 +10496,8 @@
       <c r="B110" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
@@ -10488,10 +10506,10 @@
       <c r="B111" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="16">
         <v>383575</v>
       </c>
-      <c r="D111" s="20">
+      <c r="D111" s="16">
         <v>249052</v>
       </c>
     </row>
@@ -10502,10 +10520,10 @@
       <c r="B112" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="17">
         <v>162018</v>
       </c>
-      <c r="D112" s="21">
+      <c r="D112" s="17">
         <v>97942</v>
       </c>
     </row>
@@ -10516,10 +10534,10 @@
       <c r="B113" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C113" s="16">
         <v>716314</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D113" s="16">
         <v>465538</v>
       </c>
     </row>
@@ -10530,8 +10548,8 @@
       <c r="B114" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
@@ -10540,8 +10558,8 @@
       <c r="B115" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
@@ -10642,42 +10660,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12864,42 +12882,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15086,42 +15104,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -17308,42 +17326,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -19530,42 +19548,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -21752,42 +21770,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -26011,42 +26029,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -28233,42 +28251,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -30455,42 +30473,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -32677,42 +32695,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -34899,42 +34917,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -37121,42 +37139,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -39356,42 +39374,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -41578,42 +41596,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -43800,42 +43818,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -45949,11 +45967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46020,10 +46038,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -46034,10 +46052,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -46049,7 +46067,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>336</v>
@@ -46068,10 +46086,10 @@
       <c r="B13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>66638391</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>41788201</v>
       </c>
     </row>
@@ -46082,10 +46100,10 @@
       <c r="B14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>2190327</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>1520220</v>
       </c>
     </row>
@@ -46096,10 +46114,10 @@
       <c r="B15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>1397665</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>909851</v>
       </c>
     </row>
@@ -46110,10 +46128,10 @@
       <c r="B16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>1431808</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>911633</v>
       </c>
     </row>
@@ -46124,10 +46142,10 @@
       <c r="B17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>1287330</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>831114</v>
       </c>
     </row>
@@ -46138,10 +46156,10 @@
       <c r="B18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>1603268</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>1057043</v>
       </c>
     </row>
@@ -46152,10 +46170,10 @@
       <c r="B19" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>1606660</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>1055894</v>
       </c>
     </row>
@@ -46166,10 +46184,10 @@
       <c r="B20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <v>1378151</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>906856</v>
       </c>
     </row>
@@ -46180,10 +46198,10 @@
       <c r="B21" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>1221923</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>794877</v>
       </c>
     </row>
@@ -46194,10 +46212,10 @@
       <c r="B22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <v>307110</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>182477</v>
       </c>
     </row>
@@ -46208,10 +46226,10 @@
       <c r="B23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>433929</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="16">
         <v>265035</v>
       </c>
     </row>
@@ -46222,10 +46240,10 @@
       <c r="B24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>223505</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>130136</v>
       </c>
     </row>
@@ -46236,10 +46254,10 @@
       <c r="B25" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="16">
         <v>606223</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="16">
         <v>375557</v>
       </c>
     </row>
@@ -46250,10 +46268,10 @@
       <c r="B26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="17">
         <v>332769</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="17">
         <v>196973</v>
       </c>
     </row>
@@ -46264,10 +46282,10 @@
       <c r="B27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <v>674330</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="16">
         <v>415190</v>
       </c>
     </row>
@@ -46275,13 +46293,13 @@
       <c r="A28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <v>533213</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>338980</v>
       </c>
     </row>
@@ -46292,10 +46310,10 @@
       <c r="B29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <v>209161</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="16">
         <v>120292</v>
       </c>
     </row>
@@ -46306,10 +46324,10 @@
       <c r="B30" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>555023</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>327857</v>
       </c>
     </row>
@@ -46320,10 +46338,10 @@
       <c r="B31" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <v>340544</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="16">
         <v>202609</v>
       </c>
     </row>
@@ -46334,10 +46352,10 @@
       <c r="B32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>538549</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="17">
         <v>337773</v>
       </c>
     </row>
@@ -46348,10 +46366,10 @@
       <c r="B33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>260517</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="16">
         <v>156843</v>
       </c>
     </row>
@@ -46362,10 +46380,10 @@
       <c r="B34" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>237242</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="17">
         <v>143804</v>
       </c>
     </row>
@@ -46376,10 +46394,10 @@
       <c r="B35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="16">
         <v>144089</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="16">
         <v>90901</v>
       </c>
     </row>
@@ -46390,10 +46408,10 @@
       <c r="B36" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="17">
         <v>693679</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="17">
         <v>431671</v>
       </c>
     </row>
@@ -46404,10 +46422,10 @@
       <c r="B37" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="16">
         <v>498362</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="16">
         <v>297215</v>
       </c>
     </row>
@@ -46418,10 +46436,10 @@
       <c r="B38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="17">
         <v>285308</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="17">
         <v>167628</v>
       </c>
     </row>
@@ -46432,10 +46450,10 @@
       <c r="B39" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>602825</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="16">
         <v>374141</v>
       </c>
     </row>
@@ -46446,10 +46464,10 @@
       <c r="B40" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="17">
         <v>1255755</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="17">
         <v>789179</v>
       </c>
     </row>
@@ -46460,10 +46478,10 @@
       <c r="B41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="16">
         <v>2603723</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="16">
         <v>1669923</v>
       </c>
     </row>
@@ -46474,10 +46492,10 @@
       <c r="B42" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="17">
         <v>1470725</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="17">
         <v>923540</v>
       </c>
     </row>
@@ -46488,10 +46506,10 @@
       <c r="B43" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="16">
         <v>536136</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="16">
         <v>330560</v>
       </c>
     </row>
@@ -46502,10 +46520,10 @@
       <c r="B44" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="17">
         <v>823542</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="17">
         <v>525166</v>
       </c>
     </row>
@@ -46516,10 +46534,10 @@
       <c r="B45" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="16">
         <v>572744</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="16">
         <v>362458</v>
       </c>
     </row>
@@ -46530,10 +46548,10 @@
       <c r="B46" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="17">
         <v>1121407</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="17">
         <v>735249</v>
       </c>
     </row>
@@ -46544,10 +46562,10 @@
       <c r="B47" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="16">
         <v>762743</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="16">
         <v>485391</v>
       </c>
     </row>
@@ -46558,10 +46576,10 @@
       <c r="B48" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="17">
         <v>275371</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="17">
         <v>170467</v>
       </c>
     </row>
@@ -46572,10 +46590,10 @@
       <c r="B49" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="16">
         <v>308910</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="16">
         <v>188991</v>
       </c>
     </row>
@@ -46586,10 +46604,10 @@
       <c r="B50" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="17">
         <v>570883</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="17">
         <v>363825</v>
       </c>
     </row>
@@ -46600,10 +46618,10 @@
       <c r="B51" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="16">
         <v>178084</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="16">
         <v>107715</v>
       </c>
     </row>
@@ -46614,10 +46632,10 @@
       <c r="B52" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="17">
         <v>733821</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="17">
         <v>471942</v>
       </c>
     </row>
@@ -46628,10 +46646,10 @@
       <c r="B53" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="16">
         <v>189055</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="16">
         <v>116173</v>
       </c>
     </row>
@@ -46642,10 +46660,10 @@
       <c r="B54" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="17">
         <v>1045271</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="17">
         <v>674017</v>
       </c>
     </row>
@@ -46656,10 +46674,10 @@
       <c r="B55" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="16">
         <v>369641</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="16">
         <v>225168</v>
       </c>
     </row>
@@ -46670,10 +46688,10 @@
       <c r="B56" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="17">
         <v>1380852</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="17">
         <v>873574</v>
       </c>
     </row>
@@ -46684,10 +46702,10 @@
       <c r="B57" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="16">
         <v>810934</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="16">
         <v>500363</v>
       </c>
     </row>
@@ -46698,10 +46716,10 @@
       <c r="B58" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="17">
         <v>307688</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="17">
         <v>183666</v>
       </c>
     </row>
@@ -46712,10 +46730,10 @@
       <c r="B59" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="16">
         <v>567561</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="16">
         <v>343424</v>
       </c>
     </row>
@@ -46726,10 +46744,10 @@
       <c r="B60" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="17">
         <v>670597</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="17">
         <v>396336</v>
       </c>
     </row>
@@ -46737,13 +46755,13 @@
       <c r="A61" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="20">
+      <c r="B61" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C61" s="16">
         <v>598953</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="16">
         <v>347864</v>
       </c>
     </row>
@@ -46754,10 +46772,10 @@
       <c r="B62" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="17">
         <v>908249</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="17">
         <v>556347</v>
       </c>
     </row>
@@ -46768,10 +46786,10 @@
       <c r="B63" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="16">
         <v>1051779</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="16">
         <v>670714</v>
       </c>
     </row>
@@ -46782,10 +46800,10 @@
       <c r="B64" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="17">
         <v>747548</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="17">
         <v>446857</v>
       </c>
     </row>
@@ -46796,10 +46814,10 @@
       <c r="B65" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="16">
         <v>414789</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="16">
         <v>240087</v>
       </c>
     </row>
@@ -46810,10 +46828,10 @@
       <c r="B66" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="17">
         <v>1566679</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="17">
         <v>1009329</v>
       </c>
     </row>
@@ -46824,10 +46842,10 @@
       <c r="B67" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>405010</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="16">
         <v>242460</v>
       </c>
     </row>
@@ -46838,10 +46856,10 @@
       <c r="B68" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="17">
         <v>332833</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="17">
         <v>195057</v>
       </c>
     </row>
@@ -46852,10 +46870,10 @@
       <c r="B69" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="16">
         <v>673986</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="16">
         <v>411985</v>
       </c>
     </row>
@@ -46866,10 +46884,10 @@
       <c r="B70" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="17">
         <v>241535</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="17">
         <v>142340</v>
       </c>
     </row>
@@ -46880,10 +46898,10 @@
       <c r="B71" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="16">
         <v>119502</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="16">
         <v>68516</v>
       </c>
     </row>
@@ -46894,10 +46912,10 @@
       <c r="B72" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="17">
         <v>374978</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="17">
         <v>227803</v>
       </c>
     </row>
@@ -46908,10 +46926,10 @@
       <c r="B73" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="16">
         <v>353288</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="16">
         <v>212918</v>
       </c>
     </row>
@@ -46922,10 +46940,10 @@
       <c r="B74" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="17">
         <v>642191</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="17">
         <v>376561</v>
       </c>
     </row>
@@ -46936,10 +46954,10 @@
       <c r="B75" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="16">
         <v>374743</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="16">
         <v>224557</v>
       </c>
     </row>
@@ -46950,10 +46968,10 @@
       <c r="B76" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="17">
         <v>436069</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="17">
         <v>270654</v>
       </c>
     </row>
@@ -46964,10 +46982,10 @@
       <c r="B77" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="16">
         <v>368025</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="16">
         <v>216302</v>
       </c>
     </row>
@@ -46978,10 +46996,10 @@
       <c r="B78" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="17">
         <v>742006</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="17">
         <v>450967</v>
       </c>
     </row>
@@ -46992,10 +47010,10 @@
       <c r="B79" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="16">
         <v>1132481</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="16">
         <v>708244</v>
       </c>
     </row>
@@ -47006,10 +47024,10 @@
       <c r="B80" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="17">
         <v>76422</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="17">
         <v>45978</v>
       </c>
     </row>
@@ -47020,10 +47038,10 @@
       <c r="B81" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="16">
         <v>474369</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="16">
         <v>277245</v>
       </c>
     </row>
@@ -47034,10 +47052,10 @@
       <c r="B82" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="17">
         <v>153067</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="17">
         <v>90785</v>
       </c>
     </row>
@@ -47048,10 +47066,10 @@
       <c r="B83" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="16">
         <v>278697</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="16">
         <v>162370</v>
       </c>
     </row>
@@ -47062,10 +47080,10 @@
       <c r="B84" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="17">
         <v>1348183</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="17">
         <v>895581</v>
       </c>
     </row>
@@ -47076,10 +47094,10 @@
       <c r="B85" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="16">
         <v>190664</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="16">
         <v>111119</v>
       </c>
     </row>
@@ -47090,10 +47108,10 @@
       <c r="B86" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="17">
         <v>173347</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="17">
         <v>99531</v>
       </c>
     </row>
@@ -47104,10 +47122,10 @@
       <c r="B87" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="16">
         <v>227829</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="16">
         <v>134898</v>
       </c>
     </row>
@@ -47118,10 +47136,10 @@
       <c r="B88" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="17">
         <v>386448</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="17">
         <v>228574</v>
       </c>
     </row>
@@ -47132,10 +47150,10 @@
       <c r="B89" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="16">
         <v>256897</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="16">
         <v>154042</v>
       </c>
     </row>
@@ -47146,10 +47164,10 @@
       <c r="B90" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="17">
         <v>339384</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="17">
         <v>198917</v>
       </c>
     </row>
@@ -47160,10 +47178,10 @@
       <c r="B91" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="16">
         <v>145969</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="16">
         <v>85827</v>
       </c>
     </row>
@@ -47174,10 +47192,10 @@
       <c r="B92" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="17">
         <v>227339</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D92" s="17">
         <v>136117</v>
       </c>
     </row>
@@ -47188,10 +47206,10 @@
       <c r="B93" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="16">
         <v>650700</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="16">
         <v>409082</v>
       </c>
     </row>
@@ -47202,10 +47220,10 @@
       <c r="B94" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="17">
         <v>638425</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="17">
         <v>401852</v>
       </c>
     </row>
@@ -47216,10 +47234,10 @@
       <c r="B95" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="16">
         <v>325157</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="16">
         <v>192828</v>
       </c>
     </row>
@@ -47230,10 +47248,10 @@
       <c r="B96" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="17">
         <v>508006</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D96" s="17">
         <v>306799</v>
       </c>
     </row>
@@ -47244,10 +47262,10 @@
       <c r="B97" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="16">
         <v>1252912</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="16">
         <v>791319</v>
       </c>
     </row>
@@ -47258,10 +47276,10 @@
       <c r="B98" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="17">
         <v>761997</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="17">
         <v>458174</v>
       </c>
     </row>
@@ -47272,10 +47290,10 @@
       <c r="B99" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="16">
         <v>1835903</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="16">
         <v>1181663</v>
       </c>
     </row>
@@ -47286,10 +47304,10 @@
       <c r="B100" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="17">
         <v>429681</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="17">
         <v>269774</v>
       </c>
     </row>
@@ -47300,10 +47318,10 @@
       <c r="B101" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="16">
         <v>801416</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="16">
         <v>517145</v>
       </c>
     </row>
@@ -47314,10 +47332,10 @@
       <c r="B102" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="17">
         <v>162565</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D102" s="17">
         <v>95719</v>
       </c>
     </row>
@@ -47328,10 +47346,10 @@
       <c r="B103" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C103" s="16">
         <v>141107</v>
       </c>
-      <c r="D103" s="20">
+      <c r="D103" s="16">
         <v>85134</v>
       </c>
     </row>
@@ -47342,10 +47360,10 @@
       <c r="B104" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="17">
         <v>1083704</v>
       </c>
-      <c r="D104" s="21">
+      <c r="D104" s="17">
         <v>654017</v>
       </c>
     </row>
@@ -47356,10 +47374,10 @@
       <c r="B105" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C105" s="16">
         <v>2019717</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="16">
         <v>1264920</v>
       </c>
     </row>
@@ -47370,10 +47388,10 @@
       <c r="B106" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="17">
         <v>1055821</v>
       </c>
-      <c r="D106" s="21">
+      <c r="D106" s="17">
         <v>624331</v>
       </c>
     </row>
@@ -47384,10 +47402,10 @@
       <c r="B107" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C107" s="20">
+      <c r="C107" s="16">
         <v>559014</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D107" s="16">
         <v>340474</v>
       </c>
     </row>
@@ -47398,10 +47416,10 @@
       <c r="B108" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="17">
         <v>154303</v>
       </c>
-      <c r="D108" s="21">
+      <c r="D108" s="17">
         <v>95933</v>
       </c>
     </row>
@@ -47412,10 +47430,10 @@
       <c r="B109" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C109" s="16">
         <v>176152</v>
       </c>
-      <c r="D109" s="20">
+      <c r="D109" s="16">
         <v>110097</v>
       </c>
     </row>
@@ -47426,10 +47444,10 @@
       <c r="B110" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="17">
         <v>429856</v>
       </c>
-      <c r="D110" s="21">
+      <c r="D110" s="17">
         <v>271849</v>
       </c>
     </row>
@@ -47440,10 +47458,10 @@
       <c r="B111" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="16">
         <v>376480</v>
       </c>
-      <c r="D111" s="20">
+      <c r="D111" s="16">
         <v>239539</v>
       </c>
     </row>
@@ -47454,10 +47472,10 @@
       <c r="B112" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="17">
         <v>269352</v>
       </c>
-      <c r="D112" s="21">
+      <c r="D112" s="17">
         <v>167423</v>
       </c>
     </row>
@@ -47468,10 +47486,10 @@
       <c r="B113" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C113" s="16">
         <v>852924</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D113" s="16">
         <v>560801</v>
       </c>
     </row>
@@ -47482,10 +47500,10 @@
       <c r="B114" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C114" s="17">
         <v>240987</v>
       </c>
-      <c r="D114" s="21">
+      <c r="D114" s="17">
         <v>129085</v>
       </c>
     </row>
@@ -47496,8 +47514,8 @@
       <c r="B115" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
@@ -47598,42 +47616,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -49820,42 +49838,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -52042,42 +52060,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -54264,42 +54282,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -56486,42 +56504,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -58708,42 +58726,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -60930,42 +60948,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -63165,42 +63183,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -65400,42 +65418,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -67622,42 +67640,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -69844,42 +69862,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -72066,42 +72084,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -74288,42 +74306,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -76510,42 +76528,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
     </row>
